--- a/others/论文阅读.xlsx
+++ b/others/论文阅读.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\graduate\presentation_tex\project2\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93954D5-C04A-4274-AE57-52C8C8264F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BCBEFF-94E0-4AC6-8385-E0C204B9ED90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1248" yWindow="1800" windowWidth="21564" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,115 +112,117 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>全新的基于点云的检测追踪方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nature community</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Onboard Dynamic-Object Detection and Tracking for  Autonomous Robot Navigation With RGB-D Camera</t>
+  </si>
+  <si>
+    <t>小型设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeepFusionMOT: A 3D Multi-Object Tracking  Framework Based on Camera-LiDAR Fusion  With Deep Association</t>
+  </si>
+  <si>
+    <t>滤波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光雷达，检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据关联，融合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFR-FastMOT: Detection Failure Resistant Tracker for Fast  Multi-Object Tracking Based on Sensor Fusion</t>
+  </si>
+  <si>
+    <t>ICRA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代数方法，且长时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EagerMOT: 3D Multi-Object Tracking via Sensor Fusion</t>
+  </si>
+  <si>
+    <t>无需多言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exploiting Multi-Modal Synergies for Enhancing 3D  Multi-Object Tracking</t>
+  </si>
+  <si>
+    <t>融合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过2D帮助3D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Filter Fusion: Camera-LiDAR Filter Fusion for 3-D  Object Detection With a Robust Fused Head</t>
+  </si>
+  <si>
+    <t>TRANS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四阶段融合策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSMDFusion: Fusing LiDAR and Camera at Multiple Scales with Multi-Depth Seeds for 3D Object Detection</t>
+  </si>
+  <si>
+    <t>图片映射到点云中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multi-modal 3D Human Tracking for Robots in Complex Environment  with Siamese Point-Video Transformer</t>
+  </si>
+  <si>
+    <t>框架，端到端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Probabilistic 3D Multi-Modal, Multi-Object Tracking  for Autonomous Driving</t>
+  </si>
+  <si>
+    <t>用学习的方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TransFusion: Robust LiDAR-Camera Fusion for 3D Object Detection with Transformers</t>
+  </si>
+  <si>
+    <t>当标定不好的时候如何处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Moving event detection from LiDAR point streams</t>
-  </si>
-  <si>
-    <t>全新的基于点云的检测追踪方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nature community</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Onboard Dynamic-Object Detection and Tracking for  Autonomous Robot Navigation With RGB-D Camera</t>
-  </si>
-  <si>
-    <t>小型设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeepFusionMOT: A 3D Multi-Object Tracking  Framework Based on Camera-LiDAR Fusion  With Deep Association</t>
-  </si>
-  <si>
-    <t>滤波</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>激光雷达，检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整体框架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据关联，融合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DFR-FastMOT: Detection Failure Resistant Tracker for Fast  Multi-Object Tracking Based on Sensor Fusion</t>
-  </si>
-  <si>
-    <t>ICRA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代数方法，且长时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EagerMOT: 3D Multi-Object Tracking via Sensor Fusion</t>
-  </si>
-  <si>
-    <t>无需多言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exploiting Multi-Modal Synergies for Enhancing 3D  Multi-Object Tracking</t>
-  </si>
-  <si>
-    <t>融合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过2D帮助3D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Filter Fusion: Camera-LiDAR Filter Fusion for 3-D  Object Detection With a Robust Fused Head</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TRANSACTIONS ON INSTRUMENTATION AND MEASUREMENT</t>
-  </si>
-  <si>
-    <t>TRANS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四阶段融合策略</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MSMDFusion: Fusing LiDAR and Camera at Multiple Scales with Multi-Depth Seeds for 3D Object Detection</t>
-  </si>
-  <si>
-    <t>图片映射到点云中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Multi-modal 3D Human Tracking for Robots in Complex Environment  with Siamese Point-Video Transformer</t>
-  </si>
-  <si>
-    <t>框架，端到端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Probabilistic 3D Multi-Modal, Multi-Object Tracking  for Autonomous Driving</t>
-  </si>
-  <si>
-    <t>用学习的方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TransFusion: Robust LiDAR-Camera Fusion for 3D Object Detection with Transformers</t>
-  </si>
-  <si>
-    <t>当标定不好的时候如何处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -562,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -612,7 +614,7 @@
         <v>2021</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -632,7 +634,7 @@
         <v>2024</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
@@ -649,7 +651,7 @@
         <v>2021</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>17</v>
@@ -669,7 +671,7 @@
         <v>2020</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>20</v>
@@ -680,24 +682,24 @@
     </row>
     <row r="6" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1">
         <v>2024</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
@@ -706,10 +708,10 @@
         <v>2024</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>21</v>
@@ -717,7 +719,7 @@
     </row>
     <row r="8" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
@@ -726,43 +728,43 @@
         <v>2022</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="C9" s="1">
         <v>2023</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1">
         <v>2021</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
@@ -771,35 +773,35 @@
         <v>2024</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="C12" s="1">
         <v>2024</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>6</v>
@@ -808,46 +810,46 @@
         <v>2023</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1">
         <v>2024</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1">
         <v>2021</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>6</v>
@@ -856,13 +858,10 @@
         <v>2022</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
